--- a/database/validation.xlsx
+++ b/database/validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasodeponti/Desktop/C&amp;S/Q1/Operations optimisation/project/gurobi trial/AE4441-Group-2-VRP-Project/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25275C88-FB4D-104A-8774-2D15728A0E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF05742-06AD-D749-A529-D24E5F25466D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{332DB6AF-0A0C-44F6-A528-138CF3C2D62D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,12 +72,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -102,10 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +416,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,19 +460,17 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <f>1/111</f>
-        <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f>1/111</f>
-        <v>9.0090090090090089E-3</v>
+      <c r="B3" s="1">
+        <v>-1.8018018018018018E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -487,16 +478,14 @@
         <f t="shared" ref="A4:A5" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f>1/111</f>
-        <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>-1/111</f>
-        <v>-9.0090090090090089E-3</v>
+      <c r="B4" s="1">
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -508,30 +497,68 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>-5/111</f>
-        <v>-4.5045045045045043E-2</v>
+        <v>3.6036036036036036E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.6036036036036036E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.7027027027027029E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-3.6036036036036036E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2.7027027027027029E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-3.6036036036036036E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
